--- a/Data/valid_set_set1.xlsx
+++ b/Data/valid_set_set1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsv/Desktop/ASP_Semester1/IR/CS309-IR-Monsoon-2017-Off-by-One/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\BC Grading\Github\Grading-Essay\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E069E7B-CBF3-4675-A8CD-60EFB0488969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_set" sheetId="1" r:id="rId1"/>
@@ -35,9 +36,6 @@
     <t>essay_set</t>
   </si>
   <si>
-    <t>essay</t>
-  </si>
-  <si>
     <t>Dear @ORGANIZATION1, @CAPS1 more and more people start to use computers, goes more and more into the dark aged. While computer @MONTH1 be helpful in some cases, they are also making people excercize less, most @CAPS1 many people are nature, and more people are becoming awkward. So are computer advancement recently worth society becoming less interactive? The answer is no. With more thing to do on the computer people arent getting enough exercize to keep up a healthy regimens. Kids would rather waste time on the computer than go out play. @NUM1 years ago, when most that many people had computers, you could see people outside playing and having fun with each other, But now, when you look outside, no one is on the local playground having fun and exercising, they are on the internet. "@PERCENT1 of kids, who spend most of their time on the computer, are over-weight and unhealthy, compared to the @PERCENT2 of kids who are outside playing and a healthy weight." says @PERSON1, @CAPS2. So really the problem to over-weight, its lack of exercize from the computers. Not only are people getting less exercize, they are also not experiencing the healty of nature. With less people going going outside, of exercize, waste nature healty because no-one gets to use it, and harm social skills and family relationships. So please, get off the computer and enjoy life.</t>
   </si>
   <si>
@@ -1806,12 +1804,15 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Essay Content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2376,6 +2377,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2666,19 +2670,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2686,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>592</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1788</v>
       </c>
@@ -2700,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1789</v>
       </c>
@@ -2714,13 +2718,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1790</v>
       </c>
@@ -2728,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1791</v>
       </c>
@@ -2742,13 +2746,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1792</v>
       </c>
@@ -2756,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1793</v>
       </c>
@@ -2770,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1794</v>
       </c>
@@ -2784,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1795</v>
       </c>
@@ -2798,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1796</v>
       </c>
@@ -2812,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1797</v>
       </c>
@@ -2826,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1798</v>
       </c>
@@ -2840,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1799</v>
       </c>
@@ -2854,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1800</v>
       </c>
@@ -2868,13 +2872,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1801</v>
       </c>
@@ -2882,13 +2886,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1802</v>
       </c>
@@ -2896,13 +2900,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1803</v>
       </c>
@@ -2910,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1804</v>
       </c>
@@ -2924,13 +2928,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1805</v>
       </c>
@@ -2938,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1806</v>
       </c>
@@ -2952,13 +2956,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1807</v>
       </c>
@@ -2966,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1808</v>
       </c>
@@ -2980,13 +2984,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1809</v>
       </c>
@@ -2994,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1810</v>
       </c>
@@ -3008,13 +3012,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1811</v>
       </c>
@@ -3022,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1812</v>
       </c>
@@ -3036,13 +3040,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1814</v>
       </c>
@@ -3050,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1815</v>
       </c>
@@ -3064,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1816</v>
       </c>
@@ -3078,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1817</v>
       </c>
@@ -3092,13 +3096,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1818</v>
       </c>
@@ -3106,13 +3110,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1819</v>
       </c>
@@ -3120,13 +3124,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1820</v>
       </c>
@@ -3134,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1821</v>
       </c>
@@ -3148,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1822</v>
       </c>
@@ -3162,13 +3166,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1823</v>
       </c>
@@ -3176,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1824</v>
       </c>
@@ -3190,13 +3194,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1825</v>
       </c>
@@ -3204,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1826</v>
       </c>
@@ -3218,13 +3222,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1827</v>
       </c>
@@ -3232,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1828</v>
       </c>
@@ -3246,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1829</v>
       </c>
@@ -3260,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1830</v>
       </c>
@@ -3274,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1831</v>
       </c>
@@ -3288,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1832</v>
       </c>
@@ -3302,13 +3306,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1833</v>
       </c>
@@ -3316,13 +3320,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1834</v>
       </c>
@@ -3330,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1835</v>
       </c>
@@ -3344,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1836</v>
       </c>
@@ -3358,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1837</v>
       </c>
@@ -3372,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1838</v>
       </c>
@@ -3386,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1839</v>
       </c>
@@ -3400,13 +3404,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1840</v>
       </c>
@@ -3414,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1841</v>
       </c>
@@ -3428,13 +3432,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1842</v>
       </c>
@@ -3442,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1843</v>
       </c>
@@ -3456,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1844</v>
       </c>
@@ -3470,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1845</v>
       </c>
@@ -3484,13 +3488,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1846</v>
       </c>
@@ -3498,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1847</v>
       </c>
@@ -3512,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1848</v>
       </c>
@@ -3526,13 +3530,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1849</v>
       </c>
@@ -3540,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1850</v>
       </c>
@@ -3554,13 +3558,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1851</v>
       </c>
@@ -3568,13 +3572,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1852</v>
       </c>
@@ -3582,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1853</v>
       </c>
@@ -3596,13 +3600,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1854</v>
       </c>
@@ -3610,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1855</v>
       </c>
@@ -3624,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1856</v>
       </c>
@@ -3638,13 +3642,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1857</v>
       </c>
@@ -3652,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1858</v>
       </c>
@@ -3666,13 +3670,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1859</v>
       </c>
@@ -3680,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1860</v>
       </c>
@@ -3694,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1861</v>
       </c>
@@ -3708,13 +3712,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1862</v>
       </c>
@@ -3722,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1863</v>
       </c>
@@ -3736,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1864</v>
       </c>
@@ -3750,13 +3754,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1865</v>
       </c>
@@ -3764,13 +3768,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1866</v>
       </c>
@@ -3778,13 +3782,13 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1867</v>
       </c>
@@ -3792,13 +3796,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1868</v>
       </c>
@@ -3806,13 +3810,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1869</v>
       </c>
@@ -3820,13 +3824,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1870</v>
       </c>
@@ -3834,13 +3838,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1871</v>
       </c>
@@ -3848,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1872</v>
       </c>
@@ -3862,13 +3866,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1873</v>
       </c>
@@ -3876,13 +3880,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D86" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1874</v>
       </c>
@@ -3890,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1875</v>
       </c>
@@ -3904,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1876</v>
       </c>
@@ -3918,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1877</v>
       </c>
@@ -3932,13 +3936,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1878</v>
       </c>
@@ -3946,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1879</v>
       </c>
@@ -3960,13 +3964,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1880</v>
       </c>
@@ -3974,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1881</v>
       </c>
@@ -3988,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1882</v>
       </c>
@@ -4002,13 +4006,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1883</v>
       </c>
@@ -4016,13 +4020,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1884</v>
       </c>
@@ -4030,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1885</v>
       </c>
@@ -4044,13 +4048,13 @@
         <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1886</v>
       </c>
@@ -4058,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1887</v>
       </c>
@@ -4072,13 +4076,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1888</v>
       </c>
@@ -4086,13 +4090,13 @@
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1889</v>
       </c>
@@ -4100,13 +4104,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1890</v>
       </c>
@@ -4114,13 +4118,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1891</v>
       </c>
@@ -4128,13 +4132,13 @@
         <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1892</v>
       </c>
@@ -4142,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1893</v>
       </c>
@@ -4156,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1894</v>
       </c>
@@ -4170,13 +4174,13 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1895</v>
       </c>
@@ -4184,13 +4188,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D108" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1896</v>
       </c>
@@ -4198,13 +4202,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1897</v>
       </c>
@@ -4212,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1898</v>
       </c>
@@ -4226,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1899</v>
       </c>
@@ -4240,13 +4244,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1900</v>
       </c>
@@ -4254,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D113" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1901</v>
       </c>
@@ -4268,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1902</v>
       </c>
@@ -4282,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1903</v>
       </c>
@@ -4296,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1904</v>
       </c>
@@ -4310,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1905</v>
       </c>
@@ -4324,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1906</v>
       </c>
@@ -4338,13 +4342,13 @@
         <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1907</v>
       </c>
@@ -4352,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1908</v>
       </c>
@@ -4366,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1909</v>
       </c>
@@ -4380,13 +4384,13 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1910</v>
       </c>
@@ -4394,13 +4398,13 @@
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1911</v>
       </c>
@@ -4408,13 +4412,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1912</v>
       </c>
@@ -4422,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1913</v>
       </c>
@@ -4436,13 +4440,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1914</v>
       </c>
@@ -4450,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1915</v>
       </c>
@@ -4464,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1916</v>
       </c>
@@ -4478,13 +4482,13 @@
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1917</v>
       </c>
@@ -4492,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1918</v>
       </c>
@@ -4506,13 +4510,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1919</v>
       </c>
@@ -4520,13 +4524,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1920</v>
       </c>
@@ -4534,13 +4538,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1921</v>
       </c>
@@ -4548,13 +4552,13 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1922</v>
       </c>
@@ -4562,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1923</v>
       </c>
@@ -4576,13 +4580,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D136" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1924</v>
       </c>
@@ -4590,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1925</v>
       </c>
@@ -4604,13 +4608,13 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1926</v>
       </c>
@@ -4618,13 +4622,13 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1927</v>
       </c>
@@ -4632,13 +4636,13 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1929</v>
       </c>
@@ -4646,13 +4650,13 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1930</v>
       </c>
@@ -4660,13 +4664,13 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1931</v>
       </c>
@@ -4674,13 +4678,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D143" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1932</v>
       </c>
@@ -4688,13 +4692,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D144" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1933</v>
       </c>
@@ -4702,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1934</v>
       </c>
@@ -4716,13 +4720,13 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D146" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1935</v>
       </c>
@@ -4730,13 +4734,13 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1936</v>
       </c>
@@ -4744,13 +4748,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1937</v>
       </c>
@@ -4758,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D149" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1938</v>
       </c>
@@ -4772,13 +4776,13 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1939</v>
       </c>
@@ -4786,13 +4790,13 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1940</v>
       </c>
@@ -4800,13 +4804,13 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1941</v>
       </c>
@@ -4814,13 +4818,13 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1942</v>
       </c>
@@ -4828,13 +4832,13 @@
         <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D154" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1943</v>
       </c>
@@ -4842,13 +4846,13 @@
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1944</v>
       </c>
@@ -4856,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1945</v>
       </c>
@@ -4870,13 +4874,13 @@
         <v>1</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1946</v>
       </c>
@@ -4884,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1947</v>
       </c>
@@ -4898,13 +4902,13 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1948</v>
       </c>
@@ -4912,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D160" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1949</v>
       </c>
@@ -4926,13 +4930,13 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D161" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1950</v>
       </c>
@@ -4940,13 +4944,13 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1951</v>
       </c>
@@ -4954,13 +4958,13 @@
         <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D163" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1952</v>
       </c>
@@ -4968,13 +4972,13 @@
         <v>1</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D164" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1953</v>
       </c>
@@ -4982,13 +4986,13 @@
         <v>1</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D165" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1954</v>
       </c>
@@ -4996,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D166" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1955</v>
       </c>
@@ -5010,13 +5014,13 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D167" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1956</v>
       </c>
@@ -5024,13 +5028,13 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D168" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1957</v>
       </c>
@@ -5038,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D169" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1958</v>
       </c>
@@ -5052,13 +5056,13 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D170" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1959</v>
       </c>
@@ -5066,13 +5070,13 @@
         <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D171" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1960</v>
       </c>
@@ -5080,13 +5084,13 @@
         <v>1</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D172" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1961</v>
       </c>
@@ -5094,13 +5098,13 @@
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D173" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1962</v>
       </c>
@@ -5108,13 +5112,13 @@
         <v>1</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D174" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1963</v>
       </c>
@@ -5122,13 +5126,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D175" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1964</v>
       </c>
@@ -5136,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D176" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1965</v>
       </c>
@@ -5150,13 +5154,13 @@
         <v>1</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D177" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1966</v>
       </c>
@@ -5164,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D178" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1967</v>
       </c>
@@ -5178,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D179" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1968</v>
       </c>
@@ -5192,13 +5196,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D180" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1969</v>
       </c>
@@ -5206,13 +5210,13 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D181" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1970</v>
       </c>
@@ -5220,13 +5224,13 @@
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D182" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1971</v>
       </c>
@@ -5234,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D183" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1972</v>
       </c>
@@ -5248,13 +5252,13 @@
         <v>1</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D184" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1973</v>
       </c>
@@ -5262,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D185" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1974</v>
       </c>
@@ -5276,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D186" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1975</v>
       </c>
@@ -5290,13 +5294,13 @@
         <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D187" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1976</v>
       </c>
@@ -5304,13 +5308,13 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D188" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1977</v>
       </c>
@@ -5318,13 +5322,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D189" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1978</v>
       </c>
@@ -5332,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D190" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1979</v>
       </c>
@@ -5346,13 +5350,13 @@
         <v>1</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D191" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1980</v>
       </c>
@@ -5360,13 +5364,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D192" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1981</v>
       </c>
@@ -5374,13 +5378,13 @@
         <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D193" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1982</v>
       </c>
@@ -5388,13 +5392,13 @@
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D194" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1983</v>
       </c>
@@ -5402,13 +5406,13 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D195" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1984</v>
       </c>
@@ -5416,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D196" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1985</v>
       </c>
@@ -5430,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D197" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1986</v>
       </c>
@@ -5444,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D198" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1987</v>
       </c>
@@ -5458,13 +5462,13 @@
         <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1988</v>
       </c>
@@ -5472,13 +5476,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D200" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1989</v>
       </c>
@@ -5486,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D201" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1990</v>
       </c>
@@ -5500,13 +5504,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D202" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1991</v>
       </c>
@@ -5514,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D203" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1992</v>
       </c>
@@ -5528,13 +5532,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D204" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1993</v>
       </c>
@@ -5542,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D205" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1994</v>
       </c>
@@ -5556,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D206" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1995</v>
       </c>
@@ -5570,13 +5574,13 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1996</v>
       </c>
@@ -5584,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D208" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1997</v>
       </c>
@@ -5598,13 +5602,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D209" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1998</v>
       </c>
@@ -5612,13 +5616,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D210" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1999</v>
       </c>
@@ -5626,13 +5630,13 @@
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D211" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2000</v>
       </c>
@@ -5640,13 +5644,13 @@
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D212" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2001</v>
       </c>
@@ -5654,13 +5658,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D213" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2002</v>
       </c>
@@ -5668,13 +5672,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D214" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2003</v>
       </c>
@@ -5682,13 +5686,13 @@
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D215" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2004</v>
       </c>
@@ -5696,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D216" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2005</v>
       </c>
@@ -5710,13 +5714,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D217" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2006</v>
       </c>
@@ -5724,13 +5728,13 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D218" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2007</v>
       </c>
@@ -5738,13 +5742,13 @@
         <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D219" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2008</v>
       </c>
@@ -5752,13 +5756,13 @@
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D220" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2009</v>
       </c>
@@ -5766,13 +5770,13 @@
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D221" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2010</v>
       </c>
@@ -5780,13 +5784,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D222" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2011</v>
       </c>
@@ -5794,13 +5798,13 @@
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D223" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2012</v>
       </c>
@@ -5808,13 +5812,13 @@
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D224" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2013</v>
       </c>
@@ -5822,13 +5826,13 @@
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2014</v>
       </c>
@@ -5836,13 +5840,13 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2015</v>
       </c>
@@ -5850,13 +5854,13 @@
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D227" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2016</v>
       </c>
@@ -5864,13 +5868,13 @@
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D228" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2017</v>
       </c>
@@ -5878,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D229" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2019</v>
       </c>
@@ -5892,13 +5896,13 @@
         <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D230" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2020</v>
       </c>
@@ -5906,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D231" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2021</v>
       </c>
@@ -5920,13 +5924,13 @@
         <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D232" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2022</v>
       </c>
@@ -5934,13 +5938,13 @@
         <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D233" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2023</v>
       </c>
@@ -5948,13 +5952,13 @@
         <v>1</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D234" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2024</v>
       </c>
@@ -5962,13 +5966,13 @@
         <v>1</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D235" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2025</v>
       </c>
@@ -5976,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D236" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2026</v>
       </c>
@@ -5990,13 +5994,13 @@
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D237" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2027</v>
       </c>
@@ -6004,13 +6008,13 @@
         <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D238" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2028</v>
       </c>
@@ -6018,13 +6022,13 @@
         <v>1</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D239" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2029</v>
       </c>
@@ -6032,13 +6036,13 @@
         <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D240" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2030</v>
       </c>
@@ -6046,13 +6050,13 @@
         <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D241" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2031</v>
       </c>
@@ -6060,13 +6064,13 @@
         <v>1</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D242" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2032</v>
       </c>
@@ -6074,13 +6078,13 @@
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D243" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2033</v>
       </c>
@@ -6088,13 +6092,13 @@
         <v>1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D244" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2034</v>
       </c>
@@ -6102,13 +6106,13 @@
         <v>1</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D245" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2035</v>
       </c>
@@ -6116,13 +6120,13 @@
         <v>1</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D246" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2036</v>
       </c>
@@ -6130,13 +6134,13 @@
         <v>1</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D247" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2037</v>
       </c>
@@ -6144,13 +6148,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D248" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2038</v>
       </c>
@@ -6158,13 +6162,13 @@
         <v>1</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D249" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2039</v>
       </c>
@@ -6172,13 +6176,13 @@
         <v>1</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D250" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2040</v>
       </c>
@@ -6186,13 +6190,13 @@
         <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D251" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2041</v>
       </c>
@@ -6200,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D252" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2042</v>
       </c>
@@ -6214,13 +6218,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D253" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2043</v>
       </c>
@@ -6228,13 +6232,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D254" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2044</v>
       </c>
@@ -6242,13 +6246,13 @@
         <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D255" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2045</v>
       </c>
@@ -6256,13 +6260,13 @@
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D256" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2046</v>
       </c>
@@ -6270,13 +6274,13 @@
         <v>1</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D257" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2047</v>
       </c>
@@ -6284,13 +6288,13 @@
         <v>1</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D258" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2048</v>
       </c>
@@ -6298,13 +6302,13 @@
         <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D259" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2049</v>
       </c>
@@ -6312,13 +6316,13 @@
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D260" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2050</v>
       </c>
@@ -6326,13 +6330,13 @@
         <v>1</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D261" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2051</v>
       </c>
@@ -6340,13 +6344,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D262" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2052</v>
       </c>
@@ -6354,13 +6358,13 @@
         <v>1</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D263" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2053</v>
       </c>
@@ -6368,13 +6372,13 @@
         <v>1</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D264" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2054</v>
       </c>
@@ -6382,13 +6386,13 @@
         <v>1</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D265" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2055</v>
       </c>
@@ -6396,13 +6400,13 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D266" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2056</v>
       </c>
@@ -6410,13 +6414,13 @@
         <v>1</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D267" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2057</v>
       </c>
@@ -6424,13 +6428,13 @@
         <v>1</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D268" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2058</v>
       </c>
@@ -6438,13 +6442,13 @@
         <v>1</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D269" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2059</v>
       </c>
@@ -6452,13 +6456,13 @@
         <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D270" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2060</v>
       </c>
@@ -6466,13 +6470,13 @@
         <v>1</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D271" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2061</v>
       </c>
@@ -6480,13 +6484,13 @@
         <v>1</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D272" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2062</v>
       </c>
@@ -6494,13 +6498,13 @@
         <v>1</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D273" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2063</v>
       </c>
@@ -6508,13 +6512,13 @@
         <v>1</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D274" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2064</v>
       </c>
@@ -6522,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D275" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2065</v>
       </c>
@@ -6536,13 +6540,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D276" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2066</v>
       </c>
@@ -6550,13 +6554,13 @@
         <v>1</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D277" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2067</v>
       </c>
@@ -6564,13 +6568,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D278" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2068</v>
       </c>
@@ -6578,13 +6582,13 @@
         <v>1</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D279" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2069</v>
       </c>
@@ -6592,13 +6596,13 @@
         <v>1</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D280" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2070</v>
       </c>
@@ -6606,13 +6610,13 @@
         <v>1</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D281" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2071</v>
       </c>
@@ -6620,13 +6624,13 @@
         <v>1</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D282" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2072</v>
       </c>
@@ -6634,13 +6638,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D283" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2073</v>
       </c>
@@ -6648,13 +6652,13 @@
         <v>1</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D284" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2074</v>
       </c>
@@ -6662,13 +6666,13 @@
         <v>1</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D285" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2075</v>
       </c>
@@ -6676,13 +6680,13 @@
         <v>1</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D286" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2076</v>
       </c>
@@ -6690,13 +6694,13 @@
         <v>1</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D287" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2077</v>
       </c>
@@ -6704,13 +6708,13 @@
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D288" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2078</v>
       </c>
@@ -6718,13 +6722,13 @@
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D289" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2079</v>
       </c>
@@ -6732,13 +6736,13 @@
         <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D290" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2080</v>
       </c>
@@ -6746,13 +6750,13 @@
         <v>1</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D291" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2081</v>
       </c>
@@ -6760,13 +6764,13 @@
         <v>1</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D292" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2082</v>
       </c>
@@ -6774,13 +6778,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D293" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2083</v>
       </c>
@@ -6788,13 +6792,13 @@
         <v>1</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D294" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2084</v>
       </c>
@@ -6802,13 +6806,13 @@
         <v>1</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D295" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2085</v>
       </c>
@@ -6816,13 +6820,13 @@
         <v>1</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D296" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2086</v>
       </c>
@@ -6830,13 +6834,13 @@
         <v>1</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D297" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2087</v>
       </c>
@@ -6844,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D298" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2088</v>
       </c>
@@ -6858,13 +6862,13 @@
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D299" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2089</v>
       </c>
@@ -6872,13 +6876,13 @@
         <v>1</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D300" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2090</v>
       </c>
@@ -6886,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D301" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2092</v>
       </c>
@@ -6900,13 +6904,13 @@
         <v>1</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D302" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2093</v>
       </c>
@@ -6914,13 +6918,13 @@
         <v>1</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D303" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2094</v>
       </c>
@@ -6928,13 +6932,13 @@
         <v>1</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D304" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2095</v>
       </c>
@@ -6942,13 +6946,13 @@
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D305" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2096</v>
       </c>
@@ -6956,13 +6960,13 @@
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D306" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2097</v>
       </c>
@@ -6970,13 +6974,13 @@
         <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D307" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2098</v>
       </c>
@@ -6984,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D308" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2099</v>
       </c>
@@ -6998,13 +7002,13 @@
         <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D309" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2100</v>
       </c>
@@ -7012,13 +7016,13 @@
         <v>1</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D310" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2101</v>
       </c>
@@ -7026,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D311" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2102</v>
       </c>
@@ -7040,13 +7044,13 @@
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D312" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2103</v>
       </c>
@@ -7054,13 +7058,13 @@
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D313" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2104</v>
       </c>
@@ -7068,13 +7072,13 @@
         <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D314" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2105</v>
       </c>
@@ -7082,13 +7086,13 @@
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D315" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2106</v>
       </c>
@@ -7096,13 +7100,13 @@
         <v>1</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D316" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2107</v>
       </c>
@@ -7110,13 +7114,13 @@
         <v>1</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D317" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2108</v>
       </c>
@@ -7124,13 +7128,13 @@
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D318" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2109</v>
       </c>
@@ -7138,13 +7142,13 @@
         <v>1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D319" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2110</v>
       </c>
@@ -7152,13 +7156,13 @@
         <v>1</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D320" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2111</v>
       </c>
@@ -7166,13 +7170,13 @@
         <v>1</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D321" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2112</v>
       </c>
@@ -7180,13 +7184,13 @@
         <v>1</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D322" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2113</v>
       </c>
@@ -7194,13 +7198,13 @@
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D323" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2114</v>
       </c>
@@ -7208,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D324" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2115</v>
       </c>
@@ -7222,13 +7226,13 @@
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D325" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2116</v>
       </c>
@@ -7236,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D326" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2117</v>
       </c>
@@ -7250,13 +7254,13 @@
         <v>1</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D327" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2118</v>
       </c>
@@ -7264,13 +7268,13 @@
         <v>1</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D328" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2119</v>
       </c>
@@ -7278,13 +7282,13 @@
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D329" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2120</v>
       </c>
@@ -7292,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D330" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2121</v>
       </c>
@@ -7306,13 +7310,13 @@
         <v>1</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D331" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2122</v>
       </c>
@@ -7320,13 +7324,13 @@
         <v>1</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D332" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2123</v>
       </c>
@@ -7334,13 +7338,13 @@
         <v>1</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D333" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2124</v>
       </c>
@@ -7348,13 +7352,13 @@
         <v>1</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D334" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2125</v>
       </c>
@@ -7362,13 +7366,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D335" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2126</v>
       </c>
@@ -7376,13 +7380,13 @@
         <v>1</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D336" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2127</v>
       </c>
@@ -7390,13 +7394,13 @@
         <v>1</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D337" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2128</v>
       </c>
@@ -7404,13 +7408,13 @@
         <v>1</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D338" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2129</v>
       </c>
@@ -7418,13 +7422,13 @@
         <v>1</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D339" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2130</v>
       </c>
@@ -7432,13 +7436,13 @@
         <v>1</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D340" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2131</v>
       </c>
@@ -7446,13 +7450,13 @@
         <v>1</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D341" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2132</v>
       </c>
@@ -7460,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D342" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>2133</v>
       </c>
@@ -7474,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D343" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2134</v>
       </c>
@@ -7488,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D344" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2135</v>
       </c>
@@ -7502,13 +7506,13 @@
         <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D345" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2136</v>
       </c>
@@ -7516,13 +7520,13 @@
         <v>1</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D346" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2137</v>
       </c>
@@ -7530,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D347" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2138</v>
       </c>
@@ -7544,13 +7548,13 @@
         <v>1</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D348" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2139</v>
       </c>
@@ -7558,13 +7562,13 @@
         <v>1</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D349" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2140</v>
       </c>
@@ -7572,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D350" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2141</v>
       </c>
@@ -7586,13 +7590,13 @@
         <v>1</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D351" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2142</v>
       </c>
@@ -7600,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D352" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2143</v>
       </c>
@@ -7614,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D353" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2144</v>
       </c>
@@ -7628,13 +7632,13 @@
         <v>1</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D354" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2145</v>
       </c>
@@ -7642,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D355" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2146</v>
       </c>
@@ -7656,13 +7660,13 @@
         <v>1</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D356" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2147</v>
       </c>
@@ -7670,13 +7674,13 @@
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D357" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2148</v>
       </c>
@@ -7684,13 +7688,13 @@
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D358" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2149</v>
       </c>
@@ -7698,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D359" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2150</v>
       </c>
@@ -7712,13 +7716,13 @@
         <v>1</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D360" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2151</v>
       </c>
@@ -7726,13 +7730,13 @@
         <v>1</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D361" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2152</v>
       </c>
@@ -7740,13 +7744,13 @@
         <v>1</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D362" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>2153</v>
       </c>
@@ -7754,13 +7758,13 @@
         <v>1</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D363" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2154</v>
       </c>
@@ -7768,13 +7772,13 @@
         <v>1</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D364" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2155</v>
       </c>
@@ -7782,13 +7786,13 @@
         <v>1</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D365" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2156</v>
       </c>
@@ -7796,13 +7800,13 @@
         <v>1</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D366" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2157</v>
       </c>
@@ -7810,13 +7814,13 @@
         <v>1</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D367" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2158</v>
       </c>
@@ -7824,13 +7828,13 @@
         <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D368" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2159</v>
       </c>
@@ -7838,13 +7842,13 @@
         <v>1</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D369" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2160</v>
       </c>
@@ -7852,13 +7856,13 @@
         <v>1</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D370" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2161</v>
       </c>
@@ -7866,13 +7870,13 @@
         <v>1</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D371" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2162</v>
       </c>
@@ -7880,13 +7884,13 @@
         <v>1</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D372" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2163</v>
       </c>
@@ -7894,13 +7898,13 @@
         <v>1</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D373" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2164</v>
       </c>
@@ -7908,13 +7912,13 @@
         <v>1</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D374" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2165</v>
       </c>
@@ -7922,13 +7926,13 @@
         <v>1</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D375" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2166</v>
       </c>
@@ -7936,13 +7940,13 @@
         <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D376" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2167</v>
       </c>
@@ -7950,13 +7954,13 @@
         <v>1</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D377" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2168</v>
       </c>
@@ -7964,13 +7968,13 @@
         <v>1</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D378" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2169</v>
       </c>
@@ -7978,13 +7982,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D379" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2170</v>
       </c>
@@ -7992,13 +7996,13 @@
         <v>1</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D380" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2171</v>
       </c>
@@ -8006,13 +8010,13 @@
         <v>1</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D381" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2172</v>
       </c>
@@ -8020,13 +8024,13 @@
         <v>1</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D382" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2173</v>
       </c>
@@ -8034,13 +8038,13 @@
         <v>1</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D383" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2174</v>
       </c>
@@ -8048,13 +8052,13 @@
         <v>1</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D384" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>2175</v>
       </c>
@@ -8062,13 +8066,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D385" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>2176</v>
       </c>
@@ -8076,13 +8080,13 @@
         <v>1</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D386" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>2177</v>
       </c>
@@ -8090,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D387" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>2178</v>
       </c>
@@ -8104,13 +8108,13 @@
         <v>1</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D388" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>2179</v>
       </c>
@@ -8118,13 +8122,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D389" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2180</v>
       </c>
@@ -8132,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D390" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>2181</v>
       </c>
@@ -8146,13 +8150,13 @@
         <v>1</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D391" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2182</v>
       </c>
@@ -8160,13 +8164,13 @@
         <v>1</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D392" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2183</v>
       </c>
@@ -8174,13 +8178,13 @@
         <v>1</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D393" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2184</v>
       </c>
@@ -8188,13 +8192,13 @@
         <v>1</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D394" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2185</v>
       </c>
@@ -8202,13 +8206,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D395" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2186</v>
       </c>
@@ -8216,13 +8220,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D396" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2187</v>
       </c>
@@ -8230,13 +8234,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D397" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2188</v>
       </c>
@@ -8244,13 +8248,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D398" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2189</v>
       </c>
@@ -8258,13 +8262,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D399" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2190</v>
       </c>
@@ -8272,13 +8276,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D400" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2191</v>
       </c>
@@ -8286,13 +8290,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D401" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2192</v>
       </c>
@@ -8300,13 +8304,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D402" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2193</v>
       </c>
@@ -8314,13 +8318,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D403" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>2194</v>
       </c>
@@ -8328,13 +8332,13 @@
         <v>1</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D404" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>2195</v>
       </c>
@@ -8342,13 +8346,13 @@
         <v>1</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D405" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>2196</v>
       </c>
@@ -8356,13 +8360,13 @@
         <v>1</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D406" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2197</v>
       </c>
@@ -8370,13 +8374,13 @@
         <v>1</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D407" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>2198</v>
       </c>
@@ -8384,13 +8388,13 @@
         <v>1</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D408" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>2199</v>
       </c>
@@ -8398,13 +8402,13 @@
         <v>1</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D409" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>2200</v>
       </c>
@@ -8412,13 +8416,13 @@
         <v>1</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D410" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>2201</v>
       </c>
@@ -8426,13 +8430,13 @@
         <v>1</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D411" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>2202</v>
       </c>
@@ -8440,13 +8444,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D412" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>2203</v>
       </c>
@@ -8454,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D413" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>2204</v>
       </c>
@@ -8468,13 +8472,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D414" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>2205</v>
       </c>
@@ -8482,13 +8486,13 @@
         <v>1</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D415" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>2206</v>
       </c>
@@ -8496,13 +8500,13 @@
         <v>1</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D416" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>2207</v>
       </c>
@@ -8510,13 +8514,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D417" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>2208</v>
       </c>
@@ -8524,13 +8528,13 @@
         <v>1</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D418" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>2209</v>
       </c>
@@ -8538,13 +8542,13 @@
         <v>1</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D419" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>2210</v>
       </c>
@@ -8552,13 +8556,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D420" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>2211</v>
       </c>
@@ -8566,13 +8570,13 @@
         <v>1</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D421" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>2212</v>
       </c>
@@ -8580,13 +8584,13 @@
         <v>1</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D422" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>2213</v>
       </c>
@@ -8594,13 +8598,13 @@
         <v>1</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D423" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>2214</v>
       </c>
@@ -8608,13 +8612,13 @@
         <v>1</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D424" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>2215</v>
       </c>
@@ -8622,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D425" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>2216</v>
       </c>
@@ -8636,13 +8640,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D426" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>2217</v>
       </c>
@@ -8650,13 +8654,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D427" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>2218</v>
       </c>
@@ -8664,13 +8668,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D428" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>2219</v>
       </c>
@@ -8678,13 +8682,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D429" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>2220</v>
       </c>
@@ -8692,13 +8696,13 @@
         <v>1</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D430" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>2221</v>
       </c>
@@ -8706,13 +8710,13 @@
         <v>1</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D431" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>2222</v>
       </c>
@@ -8720,13 +8724,13 @@
         <v>1</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D432" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>2223</v>
       </c>
@@ -8734,13 +8738,13 @@
         <v>1</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D433" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>2224</v>
       </c>
@@ -8748,13 +8752,13 @@
         <v>1</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D434" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>2225</v>
       </c>
@@ -8762,13 +8766,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D435" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>2226</v>
       </c>
@@ -8776,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D436" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>2227</v>
       </c>
@@ -8790,13 +8794,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D437" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>2228</v>
       </c>
@@ -8804,13 +8808,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D438" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>2229</v>
       </c>
@@ -8818,13 +8822,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D439" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>2230</v>
       </c>
@@ -8832,13 +8836,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D440" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>2231</v>
       </c>
@@ -8846,13 +8850,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D441" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>2232</v>
       </c>
@@ -8860,13 +8864,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D442" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>2233</v>
       </c>
@@ -8874,13 +8878,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D443" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>2234</v>
       </c>
@@ -8888,13 +8892,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D444" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>2235</v>
       </c>
@@ -8902,13 +8906,13 @@
         <v>1</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D445" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>2236</v>
       </c>
@@ -8916,13 +8920,13 @@
         <v>1</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D446" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>2237</v>
       </c>
@@ -8930,13 +8934,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D447" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>2238</v>
       </c>
@@ -8944,13 +8948,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D448" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>2239</v>
       </c>
@@ -8958,13 +8962,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D449" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>2240</v>
       </c>
@@ -8972,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D450" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>2241</v>
       </c>
@@ -8986,13 +8990,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D451" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>2242</v>
       </c>
@@ -9000,13 +9004,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D452" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>2243</v>
       </c>
@@ -9014,13 +9018,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D453" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>2244</v>
       </c>
@@ -9028,13 +9032,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D454" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>2245</v>
       </c>
@@ -9042,13 +9046,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D455" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>2246</v>
       </c>
@@ -9056,13 +9060,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D456" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>2247</v>
       </c>
@@ -9070,13 +9074,13 @@
         <v>1</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D457" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>2248</v>
       </c>
@@ -9084,13 +9088,13 @@
         <v>1</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D458" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>2249</v>
       </c>
@@ -9098,13 +9102,13 @@
         <v>1</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D459" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>2250</v>
       </c>
@@ -9112,13 +9116,13 @@
         <v>1</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D460" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>2251</v>
       </c>
@@ -9126,13 +9130,13 @@
         <v>1</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D461" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>2252</v>
       </c>
@@ -9140,13 +9144,13 @@
         <v>1</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D462" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>2253</v>
       </c>
@@ -9154,13 +9158,13 @@
         <v>1</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D463" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>2254</v>
       </c>
@@ -9168,13 +9172,13 @@
         <v>1</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D464" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>2255</v>
       </c>
@@ -9182,13 +9186,13 @@
         <v>1</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D465" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>2256</v>
       </c>
@@ -9196,13 +9200,13 @@
         <v>1</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D466" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>2257</v>
       </c>
@@ -9210,13 +9214,13 @@
         <v>1</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D467" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>2258</v>
       </c>
@@ -9224,13 +9228,13 @@
         <v>1</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D468" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>2259</v>
       </c>
@@ -9238,13 +9242,13 @@
         <v>1</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D469" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>2260</v>
       </c>
@@ -9252,13 +9256,13 @@
         <v>1</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D470" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>2261</v>
       </c>
@@ -9266,13 +9270,13 @@
         <v>1</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D471" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>2262</v>
       </c>
@@ -9280,13 +9284,13 @@
         <v>1</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D472" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>2263</v>
       </c>
@@ -9294,13 +9298,13 @@
         <v>1</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D473" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>2264</v>
       </c>
@@ -9308,13 +9312,13 @@
         <v>1</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D474" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>2265</v>
       </c>
@@ -9322,13 +9326,13 @@
         <v>1</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D475" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>2266</v>
       </c>
@@ -9336,13 +9340,13 @@
         <v>1</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D476" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>2267</v>
       </c>
@@ -9350,13 +9354,13 @@
         <v>1</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D477" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>2268</v>
       </c>
@@ -9364,13 +9368,13 @@
         <v>1</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D478" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>2269</v>
       </c>
@@ -9378,13 +9382,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D479" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>2270</v>
       </c>
@@ -9392,13 +9396,13 @@
         <v>1</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D480" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>2271</v>
       </c>
@@ -9406,13 +9410,13 @@
         <v>1</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D481" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>2272</v>
       </c>
@@ -9420,13 +9424,13 @@
         <v>1</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D482" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>2273</v>
       </c>
@@ -9434,13 +9438,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D483" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>2274</v>
       </c>
@@ -9448,13 +9452,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D484" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>2275</v>
       </c>
@@ -9462,13 +9466,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D485" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>2276</v>
       </c>
@@ -9476,13 +9480,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D486" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>2277</v>
       </c>
@@ -9490,13 +9494,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D487" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>2278</v>
       </c>
@@ -9504,13 +9508,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D488" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>2279</v>
       </c>
@@ -9518,13 +9522,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D489" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>2280</v>
       </c>
@@ -9532,13 +9536,13 @@
         <v>1</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D490" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>2281</v>
       </c>
@@ -9546,13 +9550,13 @@
         <v>1</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D491" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>2282</v>
       </c>
@@ -9560,13 +9564,13 @@
         <v>1</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D492" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>2283</v>
       </c>
@@ -9574,13 +9578,13 @@
         <v>1</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D493" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>2284</v>
       </c>
@@ -9588,13 +9592,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D494" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>2285</v>
       </c>
@@ -9602,13 +9606,13 @@
         <v>1</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D495" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2286</v>
       </c>
@@ -9616,13 +9620,13 @@
         <v>1</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D496" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>2287</v>
       </c>
@@ -9630,13 +9634,13 @@
         <v>1</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D497" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>2288</v>
       </c>
@@ -9644,13 +9648,13 @@
         <v>1</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D498" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>2289</v>
       </c>
@@ -9658,13 +9662,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D499" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>2290</v>
       </c>
@@ -9672,13 +9676,13 @@
         <v>1</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D500" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>2291</v>
       </c>
@@ -9686,13 +9690,13 @@
         <v>1</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D501" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>2292</v>
       </c>
@@ -9700,13 +9704,13 @@
         <v>1</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D502" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>2293</v>
       </c>
@@ -9714,13 +9718,13 @@
         <v>1</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D503" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>2294</v>
       </c>
@@ -9728,13 +9732,13 @@
         <v>1</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D504" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>2295</v>
       </c>
@@ -9742,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D505" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>2296</v>
       </c>
@@ -9756,13 +9760,13 @@
         <v>1</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D506" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>2297</v>
       </c>
@@ -9770,13 +9774,13 @@
         <v>1</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D507" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>2298</v>
       </c>
@@ -9784,13 +9788,13 @@
         <v>1</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D508" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>2299</v>
       </c>
@@ -9798,13 +9802,13 @@
         <v>1</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D509" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>2300</v>
       </c>
@@ -9812,13 +9816,13 @@
         <v>1</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D510" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>2301</v>
       </c>
@@ -9826,13 +9830,13 @@
         <v>1</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D511" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>2302</v>
       </c>
@@ -9840,13 +9844,13 @@
         <v>1</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D512" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>2303</v>
       </c>
@@ -9854,13 +9858,13 @@
         <v>1</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D513" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>2304</v>
       </c>
@@ -9868,13 +9872,13 @@
         <v>1</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D514" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>2305</v>
       </c>
@@ -9882,13 +9886,13 @@
         <v>1</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D515" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>2306</v>
       </c>
@@ -9896,13 +9900,13 @@
         <v>1</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D516" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>2307</v>
       </c>
@@ -9910,13 +9914,13 @@
         <v>1</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D517" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>2308</v>
       </c>
@@ -9924,13 +9928,13 @@
         <v>1</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D518" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>2309</v>
       </c>
@@ -9938,13 +9942,13 @@
         <v>1</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D519" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>2310</v>
       </c>
@@ -9952,13 +9956,13 @@
         <v>1</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D520" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>2311</v>
       </c>
@@ -9966,13 +9970,13 @@
         <v>1</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D521" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>2312</v>
       </c>
@@ -9980,13 +9984,13 @@
         <v>1</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D522" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>2313</v>
       </c>
@@ -9994,13 +9998,13 @@
         <v>1</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D523" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>2314</v>
       </c>
@@ -10008,13 +10012,13 @@
         <v>1</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D524" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>2315</v>
       </c>
@@ -10022,13 +10026,13 @@
         <v>1</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D525" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>2316</v>
       </c>
@@ -10036,13 +10040,13 @@
         <v>1</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D526" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>2317</v>
       </c>
@@ -10050,13 +10054,13 @@
         <v>1</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D527" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>2318</v>
       </c>
@@ -10064,13 +10068,13 @@
         <v>1</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D528" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>2319</v>
       </c>
@@ -10078,13 +10082,13 @@
         <v>1</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D529" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>2320</v>
       </c>
@@ -10092,13 +10096,13 @@
         <v>1</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D530" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>2321</v>
       </c>
@@ -10106,13 +10110,13 @@
         <v>1</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D531" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>2322</v>
       </c>
@@ -10120,13 +10124,13 @@
         <v>1</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D532" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>2323</v>
       </c>
@@ -10134,13 +10138,13 @@
         <v>1</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D533" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>2324</v>
       </c>
@@ -10148,13 +10152,13 @@
         <v>1</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D534" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>2325</v>
       </c>
@@ -10162,13 +10166,13 @@
         <v>1</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D535" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>2326</v>
       </c>
@@ -10176,13 +10180,13 @@
         <v>1</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D536" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>2327</v>
       </c>
@@ -10190,13 +10194,13 @@
         <v>1</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D537" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>2328</v>
       </c>
@@ -10204,13 +10208,13 @@
         <v>1</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D538" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>2329</v>
       </c>
@@ -10218,13 +10222,13 @@
         <v>1</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D539" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>2330</v>
       </c>
@@ -10232,13 +10236,13 @@
         <v>1</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D540" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2331</v>
       </c>
@@ -10246,13 +10250,13 @@
         <v>1</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D541" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>2332</v>
       </c>
@@ -10260,13 +10264,13 @@
         <v>1</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D542" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>2333</v>
       </c>
@@ -10274,13 +10278,13 @@
         <v>1</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D543" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>2334</v>
       </c>
@@ -10288,13 +10292,13 @@
         <v>1</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D544" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>2335</v>
       </c>
@@ -10302,13 +10306,13 @@
         <v>1</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D545" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>2336</v>
       </c>
@@ -10316,13 +10320,13 @@
         <v>1</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D546" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>2338</v>
       </c>
@@ -10330,13 +10334,13 @@
         <v>1</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D547" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>2339</v>
       </c>
@@ -10344,13 +10348,13 @@
         <v>1</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D548" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>2340</v>
       </c>
@@ -10358,13 +10362,13 @@
         <v>1</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D549" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>2341</v>
       </c>
@@ -10372,13 +10376,13 @@
         <v>1</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D550" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>2342</v>
       </c>
@@ -10386,13 +10390,13 @@
         <v>1</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D551" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>2343</v>
       </c>
@@ -10400,13 +10404,13 @@
         <v>1</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D552" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>2344</v>
       </c>
@@ -10414,13 +10418,13 @@
         <v>1</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D553" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>2345</v>
       </c>
@@ -10428,13 +10432,13 @@
         <v>1</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D554" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>2346</v>
       </c>
@@ -10442,13 +10446,13 @@
         <v>1</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D555" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>2347</v>
       </c>
@@ -10456,13 +10460,13 @@
         <v>1</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D556" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>2348</v>
       </c>
@@ -10470,13 +10474,13 @@
         <v>1</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D557" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>2349</v>
       </c>
@@ -10484,13 +10488,13 @@
         <v>1</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D558" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>2350</v>
       </c>
@@ -10498,13 +10502,13 @@
         <v>1</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D559" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>2351</v>
       </c>
@@ -10512,13 +10516,13 @@
         <v>1</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D560" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>2352</v>
       </c>
@@ -10526,13 +10530,13 @@
         <v>1</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D561" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>2353</v>
       </c>
@@ -10540,13 +10544,13 @@
         <v>1</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D562" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>2354</v>
       </c>
@@ -10554,13 +10558,13 @@
         <v>1</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D563" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>2355</v>
       </c>
@@ -10568,13 +10572,13 @@
         <v>1</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D564" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>2356</v>
       </c>
@@ -10582,13 +10586,13 @@
         <v>1</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D565" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>2357</v>
       </c>
@@ -10596,13 +10600,13 @@
         <v>1</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D566" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>2358</v>
       </c>
@@ -10610,13 +10614,13 @@
         <v>1</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D567" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>2359</v>
       </c>
@@ -10624,13 +10628,13 @@
         <v>1</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D568" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>2360</v>
       </c>
@@ -10638,13 +10642,13 @@
         <v>1</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D569" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>2361</v>
       </c>
@@ -10652,13 +10656,13 @@
         <v>1</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D570" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>2362</v>
       </c>
@@ -10666,13 +10670,13 @@
         <v>1</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D571" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>2363</v>
       </c>
@@ -10680,13 +10684,13 @@
         <v>1</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D572" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>2364</v>
       </c>
@@ -10694,13 +10698,13 @@
         <v>1</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D573" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>2365</v>
       </c>
@@ -10708,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D574" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>2366</v>
       </c>
@@ -10722,13 +10726,13 @@
         <v>1</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D575" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>2367</v>
       </c>
@@ -10736,13 +10740,13 @@
         <v>1</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D576" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>2368</v>
       </c>
@@ -10750,13 +10754,13 @@
         <v>1</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D577" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>2369</v>
       </c>
@@ -10764,13 +10768,13 @@
         <v>1</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D578" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2370</v>
       </c>
@@ -10778,13 +10782,13 @@
         <v>1</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D579" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>2371</v>
       </c>
@@ -10792,13 +10796,13 @@
         <v>1</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D580" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>2372</v>
       </c>
@@ -10806,13 +10810,13 @@
         <v>1</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D581" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>2373</v>
       </c>
@@ -10820,13 +10824,13 @@
         <v>1</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D582" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>2374</v>
       </c>
@@ -10834,13 +10838,13 @@
         <v>1</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D583" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>2375</v>
       </c>
@@ -10848,13 +10852,13 @@
         <v>1</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D584" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>2376</v>
       </c>
@@ -10862,13 +10866,13 @@
         <v>1</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D585" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>2377</v>
       </c>
@@ -10876,13 +10880,13 @@
         <v>1</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D586" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>2378</v>
       </c>
@@ -10890,13 +10894,13 @@
         <v>1</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D587" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>2379</v>
       </c>
@@ -10904,13 +10908,13 @@
         <v>1</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D588" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>2380</v>
       </c>
@@ -10918,13 +10922,13 @@
         <v>1</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D589" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>2382</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D590" s="1">
         <v>10</v>
